--- a/natmiOut/OldD0/LR-pairs_lrc2p/Dlk1-Notch2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Dlk1-Notch2.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.87807348362012</v>
+        <v>4.224535333333333</v>
       </c>
       <c r="H2">
-        <v>3.87807348362012</v>
+        <v>12.673606</v>
       </c>
       <c r="I2">
-        <v>0.7020060799362215</v>
+        <v>0.7043225486309714</v>
       </c>
       <c r="J2">
-        <v>0.7020060799362215</v>
+        <v>0.7043225486309715</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.76063460789358</v>
+        <v>33.380049</v>
       </c>
       <c r="N2">
-        <v>7.76063460789358</v>
+        <v>100.140147</v>
       </c>
       <c r="O2">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="P2">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="Q2">
-        <v>30.09631128893672</v>
+        <v>141.015196428898</v>
       </c>
       <c r="R2">
-        <v>30.09631128893672</v>
+        <v>1269.136767860082</v>
       </c>
       <c r="S2">
-        <v>0.09111651782480019</v>
+        <v>0.274084447576781</v>
       </c>
       <c r="T2">
-        <v>0.09111651782480019</v>
+        <v>0.2740844475767811</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.87807348362012</v>
+        <v>4.224535333333333</v>
       </c>
       <c r="H3">
-        <v>3.87807348362012</v>
+        <v>12.673606</v>
       </c>
       <c r="I3">
-        <v>0.7020060799362215</v>
+        <v>0.7043225486309714</v>
       </c>
       <c r="J3">
-        <v>0.7020060799362215</v>
+        <v>0.7043225486309715</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.6299748862569</v>
+        <v>33.85786133333334</v>
       </c>
       <c r="N3">
-        <v>33.6299748862569</v>
+        <v>101.573584</v>
       </c>
       <c r="O3">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="P3">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="Q3">
-        <v>130.4195138612035</v>
+        <v>143.0337315137671</v>
       </c>
       <c r="R3">
-        <v>130.4195138612035</v>
+        <v>1287.303583623904</v>
       </c>
       <c r="S3">
-        <v>0.3948447982661716</v>
+        <v>0.278007777031062</v>
       </c>
       <c r="T3">
-        <v>0.3948447982661716</v>
+        <v>0.278007777031062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.87807348362012</v>
+        <v>4.224535333333333</v>
       </c>
       <c r="H4">
-        <v>3.87807348362012</v>
+        <v>12.673606</v>
       </c>
       <c r="I4">
-        <v>0.7020060799362215</v>
+        <v>0.7043225486309714</v>
       </c>
       <c r="J4">
-        <v>0.7020060799362215</v>
+        <v>0.7043225486309715</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.4011034571746</v>
+        <v>18.53974466666667</v>
       </c>
       <c r="N4">
-        <v>18.4011034571746</v>
+        <v>55.61923400000001</v>
       </c>
       <c r="O4">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="P4">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="Q4">
-        <v>71.36083138661934</v>
+        <v>78.32180641531156</v>
       </c>
       <c r="R4">
-        <v>71.36083138661934</v>
+        <v>704.896257737804</v>
       </c>
       <c r="S4">
-        <v>0.2160447638452499</v>
+        <v>0.1522303240231285</v>
       </c>
       <c r="T4">
-        <v>0.2160447638452499</v>
+        <v>0.1522303240231285</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.64619987306142</v>
+        <v>1.773477</v>
       </c>
       <c r="H5">
-        <v>1.64619987306142</v>
+        <v>5.320431</v>
       </c>
       <c r="I5">
-        <v>0.2979939200637785</v>
+        <v>0.2956774513690286</v>
       </c>
       <c r="J5">
-        <v>0.2979939200637785</v>
+        <v>0.2956774513690286</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.76063460789358</v>
+        <v>33.380049</v>
       </c>
       <c r="N5">
-        <v>7.76063460789358</v>
+        <v>100.140147</v>
       </c>
       <c r="O5">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="P5">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="Q5">
-        <v>12.77555570639048</v>
+        <v>59.198749160373</v>
       </c>
       <c r="R5">
-        <v>12.77555570639048</v>
+        <v>532.788742443357</v>
       </c>
       <c r="S5">
-        <v>0.0386779674780597</v>
+        <v>0.1150617583902625</v>
       </c>
       <c r="T5">
-        <v>0.0386779674780597</v>
+        <v>0.1150617583902625</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.64619987306142</v>
+        <v>1.773477</v>
       </c>
       <c r="H6">
-        <v>1.64619987306142</v>
+        <v>5.320431</v>
       </c>
       <c r="I6">
-        <v>0.2979939200637785</v>
+        <v>0.2956774513690286</v>
       </c>
       <c r="J6">
-        <v>0.2979939200637785</v>
+        <v>0.2956774513690286</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.6299748862569</v>
+        <v>33.85786133333334</v>
       </c>
       <c r="N6">
-        <v>33.6299748862569</v>
+        <v>101.573584</v>
       </c>
       <c r="O6">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="P6">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="Q6">
-        <v>55.36166038881485</v>
+        <v>60.04613834385601</v>
       </c>
       <c r="R6">
-        <v>55.36166038881485</v>
+        <v>540.4152450947041</v>
       </c>
       <c r="S6">
-        <v>0.167607307992002</v>
+        <v>0.1167087879453685</v>
       </c>
       <c r="T6">
-        <v>0.167607307992002</v>
+        <v>0.1167087879453685</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.64619987306142</v>
+        <v>1.773477</v>
       </c>
       <c r="H7">
-        <v>1.64619987306142</v>
+        <v>5.320431</v>
       </c>
       <c r="I7">
-        <v>0.2979939200637785</v>
+        <v>0.2956774513690286</v>
       </c>
       <c r="J7">
-        <v>0.2979939200637785</v>
+        <v>0.2956774513690286</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.4011034571746</v>
+        <v>18.53974466666667</v>
       </c>
       <c r="N7">
-        <v>18.4011034571746</v>
+        <v>55.61923400000001</v>
       </c>
       <c r="O7">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="P7">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="Q7">
-        <v>30.29189417539088</v>
+        <v>32.879810752206</v>
       </c>
       <c r="R7">
-        <v>30.29189417539088</v>
+        <v>295.9182967698541</v>
       </c>
       <c r="S7">
-        <v>0.09170864459371679</v>
+        <v>0.06390690503339758</v>
       </c>
       <c r="T7">
-        <v>0.09170864459371679</v>
+        <v>0.06390690503339758</v>
       </c>
     </row>
   </sheetData>
